--- a/ImageVelocimetry_EquipmentLists.xlsx
+++ b/ImageVelocimetry_EquipmentLists.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b3041593_newcastle_ac_uk/Documents/new files/Placement2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b3041593_newcastle_ac_uk/Documents/Placement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1303" documentId="8_{92B07EA3-E047-4B73-8E89-06BD8D45BD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D59D05B-9EC9-412C-952F-D20E592E5454}"/>
+  <xr:revisionPtr revIDLastSave="1361" documentId="8_{92B07EA3-E047-4B73-8E89-06BD8D45BD96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C0AEA2C-55DB-46C9-878B-15E41E9CE623}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B148D033-9230-4E81-BB20-EB0C9C0E2FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="DecisionTree" sheetId="3" r:id="rId1"/>
-    <sheet name="ItemDatabase" sheetId="1" r:id="rId2"/>
+    <sheet name="ItemDatabase" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Choice" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="ListandPrices" sheetId="8" state="hidden" r:id="rId4"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="181">
   <si>
     <t>Item Name</t>
   </si>
@@ -433,9 +433,6 @@
     <t>Column7</t>
   </si>
   <si>
-    <t>Column8</t>
-  </si>
-  <si>
     <t>Column72</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
     <t>Column79</t>
   </si>
   <si>
-    <t>Column80</t>
-  </si>
-  <si>
     <t>Total Cost:</t>
   </si>
   <si>
@@ -529,9 +523,6 @@
     <t xml:space="preserve">SIM7600G-H 4G USB Dongle | The Pi Hut    </t>
   </si>
   <si>
-    <t>https://www.giffgaff.com/sim-only-deals/25pound-goodybag</t>
-  </si>
-  <si>
     <t>Raspberry Pi 4G/LTE Modem Kit - Sixfab</t>
   </si>
   <si>
@@ -596,6 +587,21 @@
   </si>
   <si>
     <t>Options</t>
+  </si>
+  <si>
+    <t>Equipment List</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Mob_Vodafone_USB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Vodafone-K5161h-Mobile-Broadband-included-White/dp/B08W4NQ53L/ref=sr_1_3?keywords=vodafone+dongle&amp;qid=1638803744&amp;sr=8-3 </t>
+  </si>
+  <si>
+    <t>Mob_Vodafone_PiHat</t>
   </si>
 </sst>
 </file>
@@ -782,59 +788,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -852,8 +828,58 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -925,13 +951,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -947,36 +966,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -987,7 +976,25 @@
       <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1089,14 +1096,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF48368D-65D6-4C69-B8F6-26894A6EA347}" name="Table5" displayName="Table5" ref="A1:E7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CF48368D-65D6-4C69-B8F6-26894A6EA347}" name="Table5" displayName="Table5" ref="A1:E7" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:E7" xr:uid="{CF48368D-65D6-4C69-B8F6-26894A6EA347}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{36F7210C-33A8-4E39-96EA-638DFCF93F90}" name="Question Number" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4A48C68D-E951-4C86-9A52-F933779835CF}" name="Subject" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{9D3597D0-11E9-417C-8C74-43C892C93D0D}" name="Option 1" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{3F91741E-0A78-4B5E-BAAC-33FA0698B034}" name="Option 2" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{81071768-48AC-40C5-9055-DE705918AC17}" name="Options" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{36F7210C-33A8-4E39-96EA-638DFCF93F90}" name="Question Number" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{4A48C68D-E951-4C86-9A52-F933779835CF}" name="Subject" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{9D3597D0-11E9-417C-8C74-43C892C93D0D}" name="Option 1" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{3F91741E-0A78-4B5E-BAAC-33FA0698B034}" name="Option 2" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{81071768-48AC-40C5-9055-DE705918AC17}" name="Options" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1114,7 +1121,7 @@
     <tableColumn id="7" xr3:uid="{FE24709D-29DB-42B8-BFDB-84A34CB1C777}" name="Power?"/>
     <tableColumn id="8" xr3:uid="{A3CA0FF8-81F2-4255-90BB-3B8B2ACAD989}" name="Solar Panel?"/>
     <tableColumn id="10" xr3:uid="{7A98A194-A2B9-477D-A955-BB579EA83E92}" name="Trigger?"/>
-    <tableColumn id="11" xr3:uid="{08DEF30F-B7BB-4844-B437-99EAC1929F53}" name="Estimated Price" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{08DEF30F-B7BB-4844-B437-99EAC1929F53}" name="Estimated Price" dataDxfId="25"/>
     <tableColumn id="12" xr3:uid="{E37076A7-2DAB-4AF8-BB13-9A8EA5FB054B}" name="URL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1122,11 +1129,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8C3F4163-23B1-4234-B65E-6C45C62106EC}" name="Table7" displayName="Table7" ref="A22:B40" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8C3F4163-23B1-4234-B65E-6C45C62106EC}" name="Table7" displayName="Table7" ref="A22:B40" totalsRowShown="0" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A22:B40" xr:uid="{8C3F4163-23B1-4234-B65E-6C45C62106EC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6AE5F735-1378-4E17-82E2-725F3BCA6B04}" name="Column1" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{1503328B-869C-4AC6-8384-D59BCF50EDA6}" name="Column2" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{6AE5F735-1378-4E17-82E2-725F3BCA6B04}" name="Column1" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{1503328B-869C-4AC6-8384-D59BCF50EDA6}" name="Column2" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1137,7 +1144,7 @@
   <autoFilter ref="A1:F479" xr:uid="{E3DF8A25-BF1F-423A-92CF-CDA7B02F910F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0A1DD66D-7867-4578-8D14-2BFD6FBDA503}" name="Binary"/>
-    <tableColumn id="2" xr3:uid="{1DAEF10C-694B-47D8-8D78-AF01446D3766}" name="Item" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{1DAEF10C-694B-47D8-8D78-AF01446D3766}" name="Item" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{8270C6BC-2B72-414F-852D-5C0E75DFD5C2}" name="Num"/>
     <tableColumn id="4" xr3:uid="{B0349422-FF31-4A20-9F99-CFE267585BB9}" name="List"/>
     <tableColumn id="5" xr3:uid="{56EEC351-611F-4EAE-900F-E5FEB5F7572C}" name="Item name">
@@ -1152,46 +1159,46 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{08C2542F-A40B-4833-917A-4DB46C7F38BC}" name="Table4" displayName="Table4" ref="A1:S64" totalsRowShown="0" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{08C2542F-A40B-4833-917A-4DB46C7F38BC}" name="Table4" displayName="Table4" ref="A1:S64" totalsRowShown="0" tableBorderDxfId="18">
   <autoFilter ref="A1:S64" xr:uid="{08C2542F-A40B-4833-917A-4DB46C7F38BC}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{2FD71657-1BEA-461F-8E8C-721162A93E0A}" name="Binary" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{E83DC176-23F2-4369-8802-3C3E6A7A6988}" name="Column8" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{2FD71657-1BEA-461F-8E8C-721162A93E0A}" name="Binary" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{E83DC176-23F2-4369-8802-3C3E6A7A6988}" name="Equipment List" dataDxfId="16">
       <calculatedColumnFormula array="1">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DF0839AB-8EB8-4479-B44C-D24BF06B253C}" name="Equipment" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{4FD6A404-2F6D-4F7C-AF2A-3E0D64A3BC2F}" name="Column1" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{091F9407-D24B-4A10-A0D3-6D2005F27FCF}" name="Column2" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{F87F8D1C-57E6-4114-96C9-62AFFEBECF25}" name="Column3" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{87A56081-1138-4DB7-B604-C85570A6996E}" name="Column4" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{04CE1FAB-972B-4196-BD5D-9E9240D8799C}" name="Column5" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{1F5C84B6-EF59-4EA7-B289-DA2615557DF6}" name="Column6" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{DF0839AB-8EB8-4479-B44C-D24BF06B253C}" name="Equipment" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{4FD6A404-2F6D-4F7C-AF2A-3E0D64A3BC2F}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{091F9407-D24B-4A10-A0D3-6D2005F27FCF}" name="Column2" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F87F8D1C-57E6-4114-96C9-62AFFEBECF25}" name="Column3" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{87A56081-1138-4DB7-B604-C85570A6996E}" name="Column4" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{04CE1FAB-972B-4196-BD5D-9E9240D8799C}" name="Column5" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{1F5C84B6-EF59-4EA7-B289-DA2615557DF6}" name="Column6" dataDxfId="9"/>
     <tableColumn id="10" xr3:uid="{BC629277-B883-45B3-AA78-956D9432572D}" name="Column7"/>
-    <tableColumn id="20" xr3:uid="{75A56F7C-95DC-4457-83D1-892EE4E21EB2}" name="Column72" dataDxfId="11">
+    <tableColumn id="20" xr3:uid="{75A56F7C-95DC-4457-83D1-892EE4E21EB2}" name="Column72" dataDxfId="8">
       <calculatedColumnFormula>IF(Table4[[#This Row],[Equipment]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Equipment]],Table7[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{3136E448-7CDC-4E07-BA8E-8AC5E14506F1}" name="Column73" dataDxfId="23">
+    <tableColumn id="21" xr3:uid="{3136E448-7CDC-4E07-BA8E-8AC5E14506F1}" name="Column73" dataDxfId="7">
       <calculatedColumnFormula>IF(Table4[[#This Row],[Column1]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column1]],Table7[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{25A2BD30-40CF-48B9-86DE-92FF9F263183}" name="Column74" dataDxfId="22">
-      <calculatedColumnFormula>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</calculatedColumnFormula>
+    <tableColumn id="22" xr3:uid="{25A2BD30-40CF-48B9-86DE-92FF9F263183}" name="Column74" dataDxfId="6">
+      <calculatedColumnFormula>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{0C3FC33E-7AB2-4E64-B5C2-F559B8019BB0}" name="Column75" dataDxfId="21">
+    <tableColumn id="23" xr3:uid="{0C3FC33E-7AB2-4E64-B5C2-F559B8019BB0}" name="Column75" dataDxfId="5">
       <calculatedColumnFormula>IF(Table4[[#This Row],[Column3]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column3]],Table7[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{E04FA7B3-D06E-4AC5-94CC-16F97E51DF9C}" name="Column76" dataDxfId="20">
+    <tableColumn id="24" xr3:uid="{E04FA7B3-D06E-4AC5-94CC-16F97E51DF9C}" name="Column76" dataDxfId="4">
       <calculatedColumnFormula>IF(Table4[[#This Row],[Column4]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column4]],Table7[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{20E5F726-1F28-48E2-822D-B6722C67F13B}" name="Column77" dataDxfId="13">
+    <tableColumn id="25" xr3:uid="{20E5F726-1F28-48E2-822D-B6722C67F13B}" name="Column77" dataDxfId="3">
       <calculatedColumnFormula>IF(Table4[[#This Row],[Column5]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column5]],Table7[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{2030581E-2169-4A04-93DC-126FBFD32107}" name="Column78" dataDxfId="12">
+    <tableColumn id="26" xr3:uid="{2030581E-2169-4A04-93DC-126FBFD32107}" name="Column78" dataDxfId="2">
       <calculatedColumnFormula>IF(Table4[[#This Row],[Column6]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column6]],Table7[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{7DB256E0-21AA-4A84-B036-4D6E93EA557A}" name="Column79" dataDxfId="14">
+    <tableColumn id="27" xr3:uid="{7DB256E0-21AA-4A84-B036-4D6E93EA557A}" name="Column79" dataDxfId="1">
       <calculatedColumnFormula>IF(Table4[[#This Row],[Column7]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column7]],Table7[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{B5EF6F5C-9C75-43F4-9F9E-4BB678DE889C}" name="Column80" dataDxfId="10">
+    <tableColumn id="28" xr3:uid="{B5EF6F5C-9C75-43F4-9F9E-4BB678DE889C}" name="Total Cost" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table4[[#This Row],[Column72]:[Column79]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1499,7 +1506,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1533,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>
@@ -1540,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>30</v>
@@ -1557,7 +1564,7 @@
       </c>
       <c r="H2" t="str">
         <f>_xlfn.CONCAT(F2:F7)</f>
-        <v>000011</v>
+        <v>000000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1565,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>33</v>
@@ -1586,7 +1593,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>34</v>
@@ -1607,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>36</v>
@@ -1628,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>38</v>
@@ -1637,11 +1644,11 @@
         <v>39</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <f>IF(E6=Table5[[#This Row],[Option 1]],1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1649,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>33</v>
@@ -1658,24 +1665,24 @@
         <v>32</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <f>IF(E7=Table5[[#This Row],[Option 1]],1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="24" t="str">
+        <v>139</v>
+      </c>
+      <c r="B8" s="30" t="str">
         <f>VLOOKUP(H2,Table4[#All],2)</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
@@ -1686,15 +1693,15 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="25">
+        <v>132</v>
+      </c>
+      <c r="B10" s="31">
         <f>VLOOKUP(H2,ListandPrices!A2:S64,19)</f>
         <v>1104.3699999999999</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1732,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A178E657-CD8C-49BD-85ED-F08700E47DAE}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,15 +1785,15 @@
         <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1794,13 +1801,13 @@
       <c r="I2" s="1">
         <v>205.59</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>142</v>
+      <c r="J2" s="24" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1808,8 +1815,8 @@
       <c r="I3" s="1">
         <v>200.4</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>146</v>
+      <c r="J3" s="24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1822,13 +1829,13 @@
       <c r="I4" s="1">
         <v>173.73</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>148</v>
+      <c r="J4" s="24" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1836,8 +1843,8 @@
       <c r="I5" s="1">
         <v>370</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>150</v>
+      <c r="J5" s="24" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1850,8 +1857,8 @@
       <c r="I6" s="1">
         <v>54</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>151</v>
+      <c r="J6" s="24" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1864,8 +1871,8 @@
       <c r="I7" s="1">
         <v>339.91</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>152</v>
+      <c r="J7" s="24" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1878,8 +1885,8 @@
       <c r="I8" s="1">
         <v>181.93</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>153</v>
+      <c r="J8" s="24" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1892,8 +1899,8 @@
       <c r="I9" s="1">
         <v>408.88</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>154</v>
+      <c r="J9" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1906,13 +1913,13 @@
       <c r="I10" s="1">
         <v>840</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>154</v>
+      <c r="J10" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1920,18 +1927,18 @@
       <c r="I11" s="1">
         <v>356.2</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>155</v>
+      <c r="J11" s="24" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J12" s="26" t="s">
-        <v>156</v>
+      <c r="J12" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1939,18 +1946,18 @@
       <c r="I13" s="1">
         <v>380.37</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>157</v>
+      <c r="J13" s="24" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J14" s="26" t="s">
-        <v>158</v>
+      <c r="J14" s="24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -1958,13 +1965,13 @@
       <c r="I15" s="1">
         <v>43</v>
       </c>
-      <c r="J15" s="26" t="s">
-        <v>159</v>
+      <c r="J15" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J16" s="26" t="s">
-        <v>160</v>
+      <c r="J16" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1978,7 +1985,7 @@
         <v>200</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1991,8 +1998,8 @@
       <c r="I18" s="1">
         <v>100</v>
       </c>
-      <c r="J18" s="26" t="s">
-        <v>162</v>
+      <c r="J18" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2005,8 +2012,8 @@
       <c r="I19" s="1">
         <v>222</v>
       </c>
-      <c r="J19" s="26" t="s">
-        <v>163</v>
+      <c r="J19" s="24" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2115,7 @@
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B34" s="18">
         <v>43</v>
@@ -2164,188 +2171,183 @@
     </row>
     <row r="41" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="29" t="str">
+      <c r="A44" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="32" t="str">
         <f>DecisionTree!B8</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>144</v>
+      <c r="B50" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B51" s="17">
         <v>205.59</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B52" s="18">
         <v>200.4</v>
       </c>
-      <c r="C52" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B53" s="17">
         <v>173.73</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B54" s="18">
         <v>370</v>
       </c>
-      <c r="C54" s="32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="17">
         <v>54</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="18">
         <v>339.91</v>
       </c>
-      <c r="C56" s="32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="17">
         <v>181.93</v>
       </c>
-      <c r="C57" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="18">
         <v>408.88</v>
       </c>
-      <c r="C58" s="32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B59" s="17">
         <v>840</v>
       </c>
-      <c r="C59" s="31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="B60" s="18">
         <v>356.2</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="17"/>
-      <c r="C61" s="31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="28"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="B62" s="18">
         <v>380.37</v>
       </c>
-      <c r="C62" s="32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="17"/>
-      <c r="C63" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="28"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B64" s="18">
         <v>43</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="17"/>
-      <c r="C65" s="31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>16</v>
       </c>
@@ -2353,32 +2355,31 @@
         <v>200</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B67" s="17">
         <v>100</v>
       </c>
-      <c r="C67" s="31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B68" s="18">
         <v>222</v>
       </c>
-      <c r="C68" s="32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="C68" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B44:J44"/>
@@ -2400,9 +2401,9 @@
     <hyperlink ref="J16" r:id="rId14" display="https://thepihut.com/collections/raspberry-pi-ssd-storage/products/ssd-to-usb-3-0-cable-for-raspberry-pi" xr:uid="{FA159C0A-C864-4002-8290-C06EBB07D04D}"/>
     <hyperlink ref="J18" r:id="rId15" display="https://uk.rs-online.com/web/p/solar-panels/9148457/?cm_mmc=UK-PLA-DS3A-_-google-_-CSS_UK_EN_Power_Supplies_%26_Transformers_Whoop-_-Solar+Panels_Whoop-_-9148457&amp;matchtype=&amp;aud-828361747427:pla-475805508670&amp;gclid=CjwKCAjwkvWKBhB4EiwA-GHjFg4nNAEJbl1bZPj3oo8EB0uyBj9hOCm6DBBUCrItc0CfmI1lFiYpLBoCoGMQAvD_BwE&amp;gclsrc=aw.ds" xr:uid="{460E0B0F-3D2E-43BD-AAD2-5CA8BB01910A}"/>
     <hyperlink ref="J19" r:id="rId16" display="https://www.maxbotix.com/Ultrasonic_Sensors/MB7586.htm" xr:uid="{4A520330-EA25-47F3-8A56-A8F166336E8F}"/>
-    <hyperlink ref="C63" r:id="rId17" xr:uid="{D00851F9-10E9-4ACC-97EB-A61818BA10D4}"/>
-    <hyperlink ref="C60" r:id="rId18" display="https://thepihut.com/products/sim7600g-h-4g-usb-dongle?variant=40340442185923&amp;currency=GBP&amp;utm_medium=product_sync&amp;utm_source=google&amp;utm_content=sag_organic&amp;utm_campaign=sag_organic&amp;gclid=CjwKCAjwkvWKBhB4EiwA-GHjFtqNytn0XzAdMW_fBXJzLopGDk8005GDMV1qopZw_0NvkZJGZWEmxhoC_DEQAvD_BwE" xr:uid="{10390072-E4B6-4329-9044-88794801ECA9}"/>
-    <hyperlink ref="C67" r:id="rId19" display="https://uk.rs-online.com/web/p/solar-panels/9148457/?cm_mmc=UK-PLA-DS3A-_-google-_-CSS_UK_EN_Power_Supplies_%26_Transformers_Whoop-_-Solar+Panels_Whoop-_-9148457&amp;matchtype=&amp;aud-828361747427:pla-475805508670&amp;gclid=CjwKCAjwkvWKBhB4EiwA-GHjFg4nNAEJbl1bZPj3oo8EB0uyBj9hOCm6DBBUCrItc0CfmI1lFiYpLBoCoGMQAvD_BwE&amp;gclsrc=aw.ds" xr:uid="{43BD92AB-BAF2-4647-B3EE-1AB322C381DB}"/>
+    <hyperlink ref="C67" r:id="rId17" display="https://uk.rs-online.com/web/p/solar-panels/9148457/?cm_mmc=UK-PLA-DS3A-_-google-_-CSS_UK_EN_Power_Supplies_%26_Transformers_Whoop-_-Solar+Panels_Whoop-_-9148457&amp;matchtype=&amp;aud-828361747427:pla-475805508670&amp;gclid=CjwKCAjwkvWKBhB4EiwA-GHjFg4nNAEJbl1bZPj3oo8EB0uyBj9hOCm6DBBUCrItc0CfmI1lFiYpLBoCoGMQAvD_BwE&amp;gclsrc=aw.ds" xr:uid="{43BD92AB-BAF2-4647-B3EE-1AB322C381DB}"/>
+    <hyperlink ref="C60" r:id="rId18" display="https://www.amazon.co.uk/Vodafone-K5161h-Mobile-Broadband-included-White/dp/B08W4NQ53L/ref=sr_1_3?keywords=vodafone+dongle&amp;qid=1638803744&amp;sr=8-3" xr:uid="{784C6830-F504-48FA-A127-C9388E9E8A02}"/>
+    <hyperlink ref="J12" r:id="rId19" display="https://www.amazon.co.uk/Vodafone-K5161h-Mobile-Broadband-included-White/dp/B08W4NQ53L/ref=sr_1_3?keywords=vodafone+dongle&amp;qid=1638803744&amp;sr=8-3" xr:uid="{0BC9580D-4224-4FB1-97C0-D82F176C50E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
@@ -4671,7 +4672,7 @@
       </c>
       <c r="D152" t="str" cm="1">
         <f t="array" ref="D152">_xlfn.CONCAT((E153:E159)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,LattePanda,Mob_GiffGaff_USB,,,,RS Solar Panel Unit,</v>
+        <v>Vivotek FD9368-HTV,LattePanda,Mob_Vodafone_USB,,,,RS Solar Panel Unit,</v>
       </c>
       <c r="E152" t="str" cm="1">
         <f t="array" ref="E152">IF(C152&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C152),"")</f>
@@ -4723,7 +4724,7 @@
       </c>
       <c r="E155" t="str" cm="1">
         <f t="array" ref="E155">IF(C155&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C155),"")</f>
-        <v>Mob_GiffGaff_USB</v>
+        <v>Mob_Vodafone_USB</v>
       </c>
       <c r="F155" cm="1">
         <f t="array" ref="F155">IF(C155&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C155),"")</f>
@@ -4820,7 +4821,7 @@
       </c>
       <c r="D162" t="str" cm="1">
         <f t="array" ref="D162">_xlfn.CONCAT((E163:E169)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_GiffGaff_USB,,,,RS Solar Panel Unit,</v>
+        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_Vodafone_USB,,,,RS Solar Panel Unit,</v>
       </c>
       <c r="E162" t="str" cm="1">
         <f t="array" ref="E162">IF(C162&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C162),"")</f>
@@ -4872,7 +4873,7 @@
       </c>
       <c r="E165" t="str" cm="1">
         <f t="array" ref="E165">IF(C165&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C165),"")</f>
-        <v>Mob_GiffGaff_USB</v>
+        <v>Mob_Vodafone_USB</v>
       </c>
       <c r="F165" cm="1">
         <f t="array" ref="F165">IF(C165&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C165),"")</f>
@@ -4969,7 +4970,7 @@
       </c>
       <c r="D172" t="str" cm="1">
         <f t="array" ref="D172">_xlfn.CONCAT((E173:E179)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_GiffGaff_USB,,,,RS Solar Panel Unit,</v>
+        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_Vodafone_USB,,,,RS Solar Panel Unit,</v>
       </c>
       <c r="E172" t="str" cm="1">
         <f t="array" ref="E172">IF(C172&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C172),"")</f>
@@ -5021,7 +5022,7 @@
       </c>
       <c r="E175" t="str" cm="1">
         <f t="array" ref="E175">IF(C175&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C175),"")</f>
-        <v>Mob_GiffGaff_USB</v>
+        <v>Mob_Vodafone_USB</v>
       </c>
       <c r="F175" cm="1">
         <f t="array" ref="F175">IF(C175&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C175),"")</f>
@@ -5118,7 +5119,7 @@
       </c>
       <c r="D182" t="str" cm="1">
         <f t="array" ref="D182">_xlfn.CONCAT((E183:E189)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_GiffGaff_USB,,,,,</v>
+        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_Vodafone_USB,,,,,</v>
       </c>
       <c r="E182" t="str" cm="1">
         <f t="array" ref="E182">IF(C182&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C182),"")</f>
@@ -5170,7 +5171,7 @@
       </c>
       <c r="E185" t="str" cm="1">
         <f t="array" ref="E185">IF(C185&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C185),"")</f>
-        <v>Mob_GiffGaff_USB</v>
+        <v>Mob_Vodafone_USB</v>
       </c>
       <c r="F185" cm="1">
         <f t="array" ref="F185">IF(C185&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C185),"")</f>
@@ -5247,7 +5248,7 @@
       </c>
       <c r="D192" t="str" cm="1">
         <f t="array" ref="D192">_xlfn.CONCAT((E193:E199)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_GiffGaff_USB,,,,,</v>
+        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_Vodafone_USB,,,,,</v>
       </c>
       <c r="E192" t="str" cm="1">
         <f t="array" ref="E192">IF(C192&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C192),"")</f>
@@ -5299,7 +5300,7 @@
       </c>
       <c r="E195" t="str" cm="1">
         <f t="array" ref="E195">IF(C195&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C195),"")</f>
-        <v>Mob_GiffGaff_USB</v>
+        <v>Mob_Vodafone_USB</v>
       </c>
       <c r="F195" cm="1">
         <f t="array" ref="F195">IF(C195&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C195),"")</f>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="D202" t="str" cm="1">
         <f t="array" ref="D202">_xlfn.CONCAT((E203:E209)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,LattePanda,Mob_GiffGaff_USB,,,,RS Solar Panel Unit,</v>
+        <v>Vivotek FD9368-HTV,LattePanda,Mob_Vodafone_USB,,,,RS Solar Panel Unit,</v>
       </c>
       <c r="E202" t="str" cm="1">
         <f t="array" ref="E202">IF(C202&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C202),"")</f>
@@ -5428,7 +5429,7 @@
       </c>
       <c r="E205" t="str" cm="1">
         <f t="array" ref="E205">IF(C205&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C205),"")</f>
-        <v>Mob_GiffGaff_USB</v>
+        <v>Mob_Vodafone_USB</v>
       </c>
       <c r="F205" cm="1">
         <f t="array" ref="F205">IF(C205&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C205),"")</f>
@@ -5505,7 +5506,7 @@
       </c>
       <c r="D212" t="str" cm="1">
         <f t="array" ref="D212">_xlfn.CONCAT((E213:E219)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,LattePanda,Mob_GiffGaff_USB,,,,,</v>
+        <v>Vivotek FD9368-HTV,LattePanda,Mob_Vodafone_USB,,,,,</v>
       </c>
       <c r="E212" t="str" cm="1">
         <f t="array" ref="E212">IF(C212&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C212),"")</f>
@@ -5557,7 +5558,7 @@
       </c>
       <c r="E215" t="str" cm="1">
         <f t="array" ref="E215">IF(C215&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C215),"")</f>
-        <v>Mob_GiffGaff_USB</v>
+        <v>Mob_Vodafone_USB</v>
       </c>
       <c r="F215" cm="1">
         <f t="array" ref="F215">IF(C215&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C215),"")</f>
@@ -5634,7 +5635,7 @@
       </c>
       <c r="D222" t="str" cm="1">
         <f t="array" ref="D222">_xlfn.CONCAT((E223:E229)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,LattePanda,Mob_GiffGaff_USB,,,,,</v>
+        <v>Vivotek FD9368-HTV,LattePanda,Mob_Vodafone_USB,,,,,</v>
       </c>
       <c r="E222" t="str" cm="1">
         <f t="array" ref="E222">IF(C222&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C222),"")</f>
@@ -5686,7 +5687,7 @@
       </c>
       <c r="E225" t="str" cm="1">
         <f t="array" ref="E225">IF(C225&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C225),"")</f>
-        <v>Mob_GiffGaff_USB</v>
+        <v>Mob_Vodafone_USB</v>
       </c>
       <c r="F225" cm="1">
         <f t="array" ref="F225">IF(C225&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C225),"")</f>
@@ -5763,7 +5764,7 @@
       </c>
       <c r="D232" t="str" cm="1">
         <f t="array" ref="D232">_xlfn.CONCAT((E233:E239)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_GiffGaff_USB,,,,,</v>
+        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_Vodafone_USB,,,,,</v>
       </c>
       <c r="E232" t="str" cm="1">
         <f t="array" ref="E232">IF(C232&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C232),"")</f>
@@ -5815,7 +5816,7 @@
       </c>
       <c r="E235" t="str" cm="1">
         <f t="array" ref="E235">IF(C235&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C235),"")</f>
-        <v>Mob_GiffGaff_USB</v>
+        <v>Mob_Vodafone_USB</v>
       </c>
       <c r="F235" cm="1">
         <f t="array" ref="F235">IF(C235&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C235),"")</f>
@@ -5892,7 +5893,7 @@
       </c>
       <c r="D242" t="str" cm="1">
         <f t="array" ref="D242">_xlfn.CONCAT((E243:E249)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_GiffGaff_USB,,,,,</v>
+        <v>Vivotek FD9368-HTV,UDOO Bolt,Mob_Vodafone_USB,,,,,</v>
       </c>
       <c r="E242" t="str" cm="1">
         <f t="array" ref="E242">IF(C242&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C242),"")</f>
@@ -5944,7 +5945,7 @@
       </c>
       <c r="E245" t="str" cm="1">
         <f t="array" ref="E245">IF(C245&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C245),"")</f>
-        <v>Mob_GiffGaff_USB</v>
+        <v>Mob_Vodafone_USB</v>
       </c>
       <c r="F245" cm="1">
         <f t="array" ref="F245">IF(C245&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C245),"")</f>
@@ -6021,7 +6022,7 @@
       </c>
       <c r="D252" t="str" cm="1">
         <f t="array" ref="D252">_xlfn.CONCAT((E253:E259)&amp;",")</f>
-        <v>Reolink Go,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
+        <v>Reolink Go,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
       </c>
       <c r="E252" t="str" cm="1">
         <f t="array" ref="E252">IF(C252&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C252),"")</f>
@@ -6089,7 +6090,7 @@
       </c>
       <c r="E256" t="str" cm="1">
         <f t="array" ref="E256">IF(C256&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C256),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F256" cm="1">
         <f t="array" ref="F256">IF(C256&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C256),"")</f>
@@ -6150,7 +6151,7 @@
       </c>
       <c r="D262" t="str" cm="1">
         <f t="array" ref="D262">_xlfn.CONCAT((E263:E269)&amp;",")</f>
-        <v>Reolink Go,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
+        <v>Reolink Go,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
       </c>
       <c r="E262" t="str" cm="1">
         <f t="array" ref="E262">IF(C262&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C262),"")</f>
@@ -6218,7 +6219,7 @@
       </c>
       <c r="E266" t="str" cm="1">
         <f t="array" ref="E266">IF(C266&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C266),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F266" cm="1">
         <f t="array" ref="F266">IF(C266&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C266),"")</f>
@@ -6279,7 +6280,7 @@
       </c>
       <c r="D272" t="str" cm="1">
         <f t="array" ref="D272">_xlfn.CONCAT((E273:E279)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
+        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
       </c>
       <c r="E272" t="str" cm="1">
         <f t="array" ref="E272">IF(C272&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C272),"")</f>
@@ -6347,7 +6348,7 @@
       </c>
       <c r="E276" t="str" cm="1">
         <f t="array" ref="E276">IF(C276&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C276),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F276" cm="1">
         <f t="array" ref="F276">IF(C276&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C276),"")</f>
@@ -6408,7 +6409,7 @@
       </c>
       <c r="D282" t="str" cm="1">
         <f t="array" ref="D282">_xlfn.CONCAT((E283:E289)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,,</v>
+        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,,</v>
       </c>
       <c r="E282" t="str" cm="1">
         <f t="array" ref="E282">IF(C282&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C282),"")</f>
@@ -6476,7 +6477,7 @@
       </c>
       <c r="E286" t="str" cm="1">
         <f t="array" ref="E286">IF(C286&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C286),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F286" cm="1">
         <f t="array" ref="F286">IF(C286&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C286),"")</f>
@@ -6537,7 +6538,7 @@
       </c>
       <c r="D292" t="str" cm="1">
         <f t="array" ref="D292">_xlfn.CONCAT((E293:E299)&amp;",")</f>
-        <v>HIKVISION DS-2CD2647G2-LZS,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,,</v>
+        <v>HIKVISION DS-2CD2647G2-LZS,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,,</v>
       </c>
       <c r="E292" t="str" cm="1">
         <f t="array" ref="E292">IF(C292&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C292),"")</f>
@@ -6605,7 +6606,7 @@
       </c>
       <c r="E296" t="str" cm="1">
         <f t="array" ref="E296">IF(C296&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C296),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F296" cm="1">
         <f t="array" ref="F296">IF(C296&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C296),"")</f>
@@ -6787,7 +6788,7 @@
       </c>
       <c r="D312" t="str" cm="1">
         <f t="array" ref="D312">_xlfn.CONCAT((E313:E319)&amp;",")</f>
-        <v>Reolink Go,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,,</v>
+        <v>Reolink Go,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,,</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6847,7 +6848,7 @@
       </c>
       <c r="E316" t="str" cm="1">
         <f t="array" ref="E316">IF(C316&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C316),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F316" cm="1">
         <f t="array" ref="F316">IF(C316&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C316),"")</f>
@@ -6908,7 +6909,7 @@
       </c>
       <c r="D322" t="str" cm="1">
         <f t="array" ref="D322">_xlfn.CONCAT((E323:E329)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,,</v>
+        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,,</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -6968,7 +6969,7 @@
       </c>
       <c r="E326" t="str" cm="1">
         <f t="array" ref="E326">IF(C326&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C326),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F326" cm="1">
         <f t="array" ref="F326">IF(C326&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C326),"")</f>
@@ -7150,7 +7151,7 @@
       </c>
       <c r="D342" t="str" cm="1">
         <f t="array" ref="D342">_xlfn.CONCAT((E343:E349)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
+        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -7210,7 +7211,7 @@
       </c>
       <c r="E346" t="str" cm="1">
         <f t="array" ref="E346">IF(C346&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C346),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F346" cm="1">
         <f t="array" ref="F346">IF(C346&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C346),"")</f>
@@ -7271,7 +7272,7 @@
       </c>
       <c r="D352" t="str" cm="1">
         <f t="array" ref="D352">_xlfn.CONCAT((E353:E359)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
+        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -7331,7 +7332,7 @@
       </c>
       <c r="E356" t="str" cm="1">
         <f t="array" ref="E356">IF(C356&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C356),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F356" cm="1">
         <f t="array" ref="F356">IF(C356&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C356),"")</f>
@@ -7392,7 +7393,7 @@
       </c>
       <c r="D362" t="str" cm="1">
         <f t="array" ref="D362">_xlfn.CONCAT((E363:E369)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
+        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -7452,7 +7453,7 @@
       </c>
       <c r="E366" t="str" cm="1">
         <f t="array" ref="E366">IF(C366&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C366),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F366" cm="1">
         <f t="array" ref="F366">IF(C366&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C366),"")</f>
@@ -7513,7 +7514,7 @@
       </c>
       <c r="D372" t="str" cm="1">
         <f t="array" ref="D372">_xlfn.CONCAT((E373:E379)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
+        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,MaxSonar,</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -7573,7 +7574,7 @@
       </c>
       <c r="E376" t="str" cm="1">
         <f t="array" ref="E376">IF(C376&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C376),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F376" cm="1">
         <f t="array" ref="F376">IF(C376&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C376),"")</f>
@@ -7634,7 +7635,7 @@
       </c>
       <c r="D382" t="str" cm="1">
         <f t="array" ref="D382">_xlfn.CONCAT((E383:E389)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,,</v>
+        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,,</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -7694,7 +7695,7 @@
       </c>
       <c r="E386" t="str" cm="1">
         <f t="array" ref="E386">IF(C386&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C386),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F386" cm="1">
         <f t="array" ref="F386">IF(C386&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C386),"")</f>
@@ -7755,7 +7756,7 @@
       </c>
       <c r="D392" t="str" cm="1">
         <f t="array" ref="D392">_xlfn.CONCAT((E393:E399)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,,</v>
+        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,,</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -7815,7 +7816,7 @@
       </c>
       <c r="E396" t="str" cm="1">
         <f t="array" ref="E396">IF(C396&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C396),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F396" cm="1">
         <f t="array" ref="F396">IF(C396&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C396),"")</f>
@@ -7876,7 +7877,7 @@
       </c>
       <c r="D402" t="str" cm="1">
         <f t="array" ref="D402">_xlfn.CONCAT((E403:E409)&amp;",")</f>
-        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_GIffGaff_PiHat,0,RSPi 4B_SSDUnit,,</v>
+        <v>Vivotek FD9368-HTV,RSPi 4B,,Mob_Vodafone_PiHat,0,RSPi 4B_SSDUnit,,</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -7936,7 +7937,7 @@
       </c>
       <c r="E406" t="str" cm="1">
         <f t="array" ref="E406">IF(C406&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C406),"")</f>
-        <v>Mob_GIffGaff_PiHat</v>
+        <v>Mob_Vodafone_PiHat</v>
       </c>
       <c r="F406" cm="1">
         <f t="array" ref="F406">IF(C406&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C406),"")</f>
@@ -8602,7 +8603,7 @@
       </c>
       <c r="D462" t="str">
         <f>_xlfn.CONCAT(E463:E468)</f>
-        <v>HIKVISION DS-2CD2647G2-LZSUDOO BoltMob_GiffGaff_USB</v>
+        <v>HIKVISION DS-2CD2647G2-LZSUDOO BoltMob_Vodafone_USB</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -8646,7 +8647,7 @@
       </c>
       <c r="E465" t="str" cm="1">
         <f t="array" ref="E465">IF(C465&lt;&gt;0,INDEX(ItemDatabase!$A$2:$A$19,Choice!C465),"")</f>
-        <v>Mob_GiffGaff_USB</v>
+        <v>Mob_Vodafone_USB</v>
       </c>
       <c r="F465" cm="1">
         <f t="array" ref="F465">IF(C465&lt;&gt;0,INDEX(ItemDatabase!$I$2:$I$19,Choice!C465),"")</f>
@@ -8851,8 +8852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3908A8-20D7-4D89-BD6D-F1039DB86FC8}">
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection sqref="A1:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8861,11 +8862,12 @@
     <col min="2" max="2" width="108.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="13" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -8873,7 +8875,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>106</v>
@@ -8900,31 +8902,31 @@
         <v>123</v>
       </c>
       <c r="K1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" t="s">
         <v>125</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>126</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>127</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>128</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>129</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>131</v>
       </c>
-      <c r="R1" t="s">
-        <v>132</v>
-      </c>
       <c r="S1" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8933,7 +8935,7 @@
       </c>
       <c r="B2" s="12" t="str" cm="1">
         <f t="array" ref="B2">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>10</v>
@@ -8941,8 +8943,8 @@
       <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>15</v>
+      <c r="E2" t="s">
+        <v>180</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>16</v>
@@ -8959,7 +8961,7 @@
         <v>54</v>
       </c>
       <c r="M2" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N2" s="13">
@@ -8993,7 +8995,7 @@
       </c>
       <c r="B3" s="12" t="str" cm="1">
         <f t="array" ref="B3">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>10</v>
@@ -9001,8 +9003,8 @@
       <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>15</v>
+      <c r="E3" t="s">
+        <v>180</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>16</v>
@@ -9019,11 +9021,11 @@
         <v>54</v>
       </c>
       <c r="M3" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N3" s="13">
-        <f>IF(Table4[[#This Row],[Column3]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column3]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column3]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column3]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="O3" s="13">
@@ -9053,7 +9055,7 @@
       </c>
       <c r="B4" s="12" t="str" cm="1">
         <f t="array" ref="B4">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>10</v>
@@ -9061,8 +9063,8 @@
       <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>15</v>
+      <c r="E4" t="s">
+        <v>180</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>16</v>
@@ -9079,7 +9081,7 @@
         <v>54</v>
       </c>
       <c r="M4" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N4" s="13">
@@ -9113,7 +9115,7 @@
       </c>
       <c r="B5" s="12" t="str" cm="1">
         <f t="array" ref="B5">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>10</v>
@@ -9121,8 +9123,8 @@
       <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>15</v>
+      <c r="E5" t="s">
+        <v>180</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>16</v>
@@ -9139,7 +9141,7 @@
         <v>54</v>
       </c>
       <c r="M5" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N5" s="13">
@@ -9173,7 +9175,7 @@
       </c>
       <c r="B6" s="12" t="str" cm="1">
         <f t="array" ref="B6">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>10</v>
@@ -9181,8 +9183,8 @@
       <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>15</v>
+      <c r="E6" t="s">
+        <v>180</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>16</v>
@@ -9202,7 +9204,7 @@
         <v>54</v>
       </c>
       <c r="M6" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N6" s="13">
@@ -9236,7 +9238,7 @@
       </c>
       <c r="B7" s="12" t="str" cm="1">
         <f t="array" ref="B7">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>10</v>
@@ -9244,8 +9246,8 @@
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>15</v>
+      <c r="E7" t="s">
+        <v>180</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>16</v>
@@ -9265,7 +9267,7 @@
         <v>54</v>
       </c>
       <c r="M7" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N7" s="13">
@@ -9299,16 +9301,16 @@
       </c>
       <c r="B8" s="12" t="str" cm="1">
         <f t="array" ref="B8">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Reolink Go-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>Reolink Go-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>15</v>
+      <c r="E8" t="s">
+        <v>180</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>16</v>
@@ -9328,7 +9330,7 @@
         <v>54</v>
       </c>
       <c r="M8" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N8" s="13">
@@ -9362,16 +9364,16 @@
       </c>
       <c r="B9" s="12" t="str" cm="1">
         <f t="array" ref="B9">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Reolink Go-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
-      </c>
-      <c r="C9" s="27" t="s">
+        <v>Reolink Go-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>15</v>
+      <c r="E9" t="s">
+        <v>180</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>16</v>
@@ -9391,7 +9393,7 @@
         <v>54</v>
       </c>
       <c r="M9" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N9" s="13">
@@ -9425,7 +9427,7 @@
       </c>
       <c r="B10" s="12" t="str" cm="1">
         <f t="array" ref="B10">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>10</v>
@@ -9433,8 +9435,8 @@
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>15</v>
+      <c r="E10" t="s">
+        <v>180</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>16</v>
@@ -9451,7 +9453,7 @@
         <v>54</v>
       </c>
       <c r="M10" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N10" s="13">
@@ -9485,7 +9487,7 @@
       </c>
       <c r="B11" s="12" t="str" cm="1">
         <f t="array" ref="B11">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>10</v>
@@ -9493,8 +9495,8 @@
       <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>15</v>
+      <c r="E11" t="s">
+        <v>180</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>16</v>
@@ -9511,7 +9513,7 @@
         <v>54</v>
       </c>
       <c r="M11" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N11" s="13">
@@ -9545,7 +9547,7 @@
       </c>
       <c r="B12" s="12" t="str" cm="1">
         <f t="array" ref="B12">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>10</v>
@@ -9553,8 +9555,8 @@
       <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>15</v>
+      <c r="E12" t="s">
+        <v>180</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>16</v>
@@ -9571,7 +9573,7 @@
         <v>54</v>
       </c>
       <c r="M12" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N12" s="13">
@@ -9605,7 +9607,7 @@
       </c>
       <c r="B13" s="12" t="str" cm="1">
         <f t="array" ref="B13">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+--+--+-</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>10</v>
@@ -9613,8 +9615,8 @@
       <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>15</v>
+      <c r="E13" t="s">
+        <v>180</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>16</v>
@@ -9631,7 +9633,7 @@
         <v>54</v>
       </c>
       <c r="M13" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N13" s="13">
@@ -9665,7 +9667,7 @@
       </c>
       <c r="B14" s="12" t="str" cm="1">
         <f t="array" ref="B14">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>10</v>
@@ -9673,8 +9675,8 @@
       <c r="D14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>15</v>
+      <c r="E14" t="s">
+        <v>180</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>16</v>
@@ -9694,7 +9696,7 @@
         <v>54</v>
       </c>
       <c r="M14" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N14" s="13">
@@ -9728,7 +9730,7 @@
       </c>
       <c r="B15" s="12" t="str" cm="1">
         <f t="array" ref="B15">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
+        <v>Hikvision DS-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>10</v>
@@ -9736,8 +9738,8 @@
       <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>15</v>
+      <c r="E15" t="s">
+        <v>180</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>16</v>
@@ -9757,7 +9759,7 @@
         <v>54</v>
       </c>
       <c r="M15" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N15" s="13">
@@ -9791,16 +9793,16 @@
       </c>
       <c r="B16" s="12" t="str" cm="1">
         <f t="array" ref="B16">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Reolink Go-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
-      </c>
-      <c r="C16" s="27" t="s">
+        <v>Reolink Go-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>15</v>
+      <c r="E16" t="s">
+        <v>180</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>16</v>
@@ -9820,7 +9822,7 @@
         <v>54</v>
       </c>
       <c r="M16" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N16" s="13">
@@ -9854,16 +9856,16 @@
       </c>
       <c r="B17" s="12" t="str" cm="1">
         <f t="array" ref="B17">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Reolink Go-+-RSPi 4B-+-Mob_GIffGaff_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
-      </c>
-      <c r="C17" s="27" t="s">
+        <v>Reolink Go-+-RSPi 4B-+-Mob_Vodafone_PiHat-+--+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>15</v>
+      <c r="E17" t="s">
+        <v>180</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>16</v>
@@ -9883,7 +9885,7 @@
         <v>54</v>
       </c>
       <c r="M17" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>380.37</v>
       </c>
       <c r="N17" s="13">
@@ -9926,7 +9928,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>16</v>
@@ -9943,7 +9945,7 @@
         <v>54</v>
       </c>
       <c r="M18" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N18" s="13">
@@ -9986,7 +9988,7 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>16</v>
@@ -10003,7 +10005,7 @@
         <v>54</v>
       </c>
       <c r="M19" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N19" s="13">
@@ -10046,7 +10048,7 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>16</v>
@@ -10063,7 +10065,7 @@
         <v>54</v>
       </c>
       <c r="M20" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N20" s="13">
@@ -10106,7 +10108,7 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>16</v>
@@ -10123,7 +10125,7 @@
         <v>54</v>
       </c>
       <c r="M21" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N21" s="13">
@@ -10166,7 +10168,7 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>16</v>
@@ -10186,7 +10188,7 @@
         <v>54</v>
       </c>
       <c r="M22" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N22" s="13">
@@ -10229,7 +10231,7 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>16</v>
@@ -10249,7 +10251,7 @@
         <v>54</v>
       </c>
       <c r="M23" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N23" s="13">
@@ -10285,14 +10287,14 @@
         <f t="array" ref="B24">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
         <v>Reolink Go-+-RSPi 4B-+--+-RSPi 4B_SSDUnit-+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>16</v>
@@ -10312,7 +10314,7 @@
         <v>54</v>
       </c>
       <c r="M24" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N24" s="13">
@@ -10348,14 +10350,14 @@
         <f t="array" ref="B25">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
         <v>Reolink Go-+-RSPi 4B-+--+-RSPi 4B_SSDUnit-+-12V_Battery_and_Case-+-RS Solar Panel Unit-+-MaxSonar-+--+-</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>16</v>
@@ -10375,7 +10377,7 @@
         <v>54</v>
       </c>
       <c r="M25" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N25" s="13">
@@ -10418,7 +10420,7 @@
         <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>16</v>
@@ -10435,7 +10437,7 @@
         <v>54</v>
       </c>
       <c r="M26" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N26" s="13">
@@ -10478,7 +10480,7 @@
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>16</v>
@@ -10495,7 +10497,7 @@
         <v>54</v>
       </c>
       <c r="M27" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N27" s="13">
@@ -10538,7 +10540,7 @@
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>16</v>
@@ -10555,7 +10557,7 @@
         <v>54</v>
       </c>
       <c r="M28" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N28" s="13">
@@ -10598,7 +10600,7 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>16</v>
@@ -10618,7 +10620,7 @@
         <v>54</v>
       </c>
       <c r="M29" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N29" s="13">
@@ -10661,7 +10663,7 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>16</v>
@@ -10681,7 +10683,7 @@
         <v>54</v>
       </c>
       <c r="M30" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N30" s="13">
@@ -10724,7 +10726,7 @@
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>16</v>
@@ -10744,7 +10746,7 @@
         <v>54</v>
       </c>
       <c r="M31" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N31" s="13">
@@ -10787,7 +10789,7 @@
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>16</v>
@@ -10807,7 +10809,7 @@
         <v>54</v>
       </c>
       <c r="M32" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="N32" s="13">
@@ -10841,7 +10843,7 @@
       </c>
       <c r="B33" s="12" t="str" cm="1">
         <f t="array" ref="B33">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-UDOO Bolt-+-Mob_GiffGaff_USB-+--+--+--+--+--+-</v>
+        <v>Hikvision DS-+-UDOO Bolt-+-Mob_Vodafone_USB-+--+--+--+--+--+-</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>10</v>
@@ -10849,8 +10851,8 @@
       <c r="D33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>14</v>
+      <c r="E33" t="s">
+        <v>178</v>
       </c>
       <c r="K33" s="13">
         <f>IF(Table4[[#This Row],[Equipment]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Equipment]],Table7[],2,FALSE),0)</f>
@@ -10861,7 +10863,7 @@
         <v>339.91</v>
       </c>
       <c r="M33" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N33" s="13">
@@ -10895,7 +10897,7 @@
       </c>
       <c r="B34" s="12" t="str" cm="1">
         <f t="array" ref="B34">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Vivotek HTV-+-LattePanda-+-Mob_GiffGaff_USB-+--+--+--+--+--+-</v>
+        <v>Vivotek HTV-+-LattePanda-+-Mob_Vodafone_USB-+--+--+--+--+--+-</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>8</v>
@@ -10903,8 +10905,8 @@
       <c r="D34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>14</v>
+      <c r="E34" t="s">
+        <v>178</v>
       </c>
       <c r="K34" s="13">
         <f>IF(Table4[[#This Row],[Equipment]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Equipment]],Table7[],2,FALSE),0)</f>
@@ -10915,7 +10917,7 @@
         <v>181.93</v>
       </c>
       <c r="M34" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N34" s="13">
@@ -10949,7 +10951,7 @@
       </c>
       <c r="B35" s="12" t="str" cm="1">
         <f t="array" ref="B35">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-UDOO Bolt-+-Mob_GiffGaff_USB-+--+--+--+--+--+-</v>
+        <v>Hikvision DS-+-UDOO Bolt-+-Mob_Vodafone_USB-+--+--+--+--+--+-</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>10</v>
@@ -10957,8 +10959,8 @@
       <c r="D35" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>14</v>
+      <c r="E35" t="s">
+        <v>178</v>
       </c>
       <c r="K35" s="13">
         <f>IF(Table4[[#This Row],[Equipment]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Equipment]],Table7[],2,FALSE),0)</f>
@@ -10969,7 +10971,7 @@
         <v>339.91</v>
       </c>
       <c r="M35" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N35" s="13">
@@ -11003,7 +11005,7 @@
       </c>
       <c r="B36" s="12" t="str" cm="1">
         <f t="array" ref="B36">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Vivotek HTV-+-LattePanda-+-Mob_GiffGaff_USB-+--+--+--+--+--+-</v>
+        <v>Vivotek HTV-+-LattePanda-+-Mob_Vodafone_USB-+--+--+--+--+--+-</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>8</v>
@@ -11011,8 +11013,8 @@
       <c r="D36" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>14</v>
+      <c r="E36" t="s">
+        <v>178</v>
       </c>
       <c r="K36" s="13">
         <f>IF(Table4[[#This Row],[Equipment]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Equipment]],Table7[],2,FALSE),0)</f>
@@ -11023,7 +11025,7 @@
         <v>181.93</v>
       </c>
       <c r="M36" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N36" s="13">
@@ -11057,7 +11059,7 @@
       </c>
       <c r="B37" s="12" t="str" cm="1">
         <f t="array" ref="B37">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-UDOO Bolt-+-Mob_GiffGaff_USB-+--+--+--+-MaxSonar-+--+-</v>
+        <v>Hikvision DS-+-UDOO Bolt-+-Mob_Vodafone_USB-+--+--+--+-MaxSonar-+--+-</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>10</v>
@@ -11065,8 +11067,8 @@
       <c r="D37" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>14</v>
+      <c r="E37" t="s">
+        <v>178</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>24</v>
@@ -11080,7 +11082,7 @@
         <v>339.91</v>
       </c>
       <c r="M37" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N37" s="13">
@@ -11114,7 +11116,7 @@
       </c>
       <c r="B38" s="12" t="str" cm="1">
         <f t="array" ref="B38">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Vivotek HTV-+-LattePanda-+-Mob_GiffGaff_USB-+--+--+--+-MaxSonar-+--+-</v>
+        <v>Vivotek HTV-+-LattePanda-+-Mob_Vodafone_USB-+--+--+--+-MaxSonar-+--+-</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>8</v>
@@ -11122,8 +11124,8 @@
       <c r="D38" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>14</v>
+      <c r="E38" t="s">
+        <v>178</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>24</v>
@@ -11137,7 +11139,7 @@
         <v>181.93</v>
       </c>
       <c r="M38" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N38" s="13">
@@ -11171,7 +11173,7 @@
       </c>
       <c r="B39" s="12" t="str" cm="1">
         <f t="array" ref="B39">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-UDOO Bolt-+-Mob_GiffGaff_USB-+--+--+--+-MaxSonar-+--+-</v>
+        <v>Hikvision DS-+-UDOO Bolt-+-Mob_Vodafone_USB-+--+--+--+-MaxSonar-+--+-</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>10</v>
@@ -11179,8 +11181,8 @@
       <c r="D39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>14</v>
+      <c r="E39" t="s">
+        <v>178</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>24</v>
@@ -11194,7 +11196,7 @@
         <v>339.91</v>
       </c>
       <c r="M39" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N39" s="13">
@@ -11228,7 +11230,7 @@
       </c>
       <c r="B40" s="12" t="str" cm="1">
         <f t="array" ref="B40">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Vivotek HTV-+-LattePanda-+-Mob_GiffGaff_USB-+--+--+--+-MaxSonar-+--+-</v>
+        <v>Vivotek HTV-+-LattePanda-+-Mob_Vodafone_USB-+--+--+--+-MaxSonar-+--+-</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>8</v>
@@ -11236,8 +11238,8 @@
       <c r="D40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>14</v>
+      <c r="E40" t="s">
+        <v>178</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>24</v>
@@ -11251,7 +11253,7 @@
         <v>181.93</v>
       </c>
       <c r="M40" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N40" s="13">
@@ -11285,7 +11287,7 @@
       </c>
       <c r="B41" s="12" t="str" cm="1">
         <f t="array" ref="B41">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Vivotek HTV-+-UDOO Bolt-+-Mob_GiffGaff_USB-+--+--+--+--+--+-</v>
+        <v>Vivotek HTV-+-UDOO Bolt-+-Mob_Vodafone_USB-+--+--+--+--+--+-</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>8</v>
@@ -11293,8 +11295,8 @@
       <c r="D41" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>14</v>
+      <c r="E41" t="s">
+        <v>178</v>
       </c>
       <c r="K41" s="13">
         <f>IF(Table4[[#This Row],[Equipment]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Equipment]],Table7[],2,FALSE),0)</f>
@@ -11305,7 +11307,7 @@
         <v>339.91</v>
       </c>
       <c r="M41" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N41" s="13">
@@ -11339,7 +11341,7 @@
       </c>
       <c r="B42" s="12" t="str" cm="1">
         <f t="array" ref="B42">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Vivotek HTV-+-LattePanda-+-Mob_GiffGaff_USB-+--+--+--+--+--+-</v>
+        <v>Vivotek HTV-+-LattePanda-+-Mob_Vodafone_USB-+--+--+--+--+--+-</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>8</v>
@@ -11347,8 +11349,8 @@
       <c r="D42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>14</v>
+      <c r="E42" t="s">
+        <v>178</v>
       </c>
       <c r="K42" s="13">
         <f>IF(Table4[[#This Row],[Equipment]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Equipment]],Table7[],2,FALSE),0)</f>
@@ -11359,7 +11361,7 @@
         <v>181.93</v>
       </c>
       <c r="M42" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N42" s="13">
@@ -11393,7 +11395,7 @@
       </c>
       <c r="B43" s="12" t="str" cm="1">
         <f t="array" ref="B43">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Vivotek HTV-+-UDOO Bolt-+-Mob_GiffGaff_USB-+--+--+--+--+--+-</v>
+        <v>Vivotek HTV-+-UDOO Bolt-+-Mob_Vodafone_USB-+--+--+--+--+--+-</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>8</v>
@@ -11401,8 +11403,8 @@
       <c r="D43" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>14</v>
+      <c r="E43" t="s">
+        <v>178</v>
       </c>
       <c r="K43" s="13">
         <f>IF(Table4[[#This Row],[Equipment]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Equipment]],Table7[],2,FALSE),0)</f>
@@ -11413,7 +11415,7 @@
         <v>339.91</v>
       </c>
       <c r="M43" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N43" s="13">
@@ -11447,7 +11449,7 @@
       </c>
       <c r="B44" s="12" t="str" cm="1">
         <f t="array" ref="B44">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Vivotek HTV-+-UDOO Bolt-+-Mob_GiffGaff_USB-+--+--+--+--+--+-</v>
+        <v>Vivotek HTV-+-UDOO Bolt-+-Mob_Vodafone_USB-+--+--+--+--+--+-</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>8</v>
@@ -11455,8 +11457,8 @@
       <c r="D44" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>14</v>
+      <c r="E44" t="s">
+        <v>178</v>
       </c>
       <c r="K44" s="13">
         <f>IF(Table4[[#This Row],[Equipment]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Equipment]],Table7[],2,FALSE),0)</f>
@@ -11467,7 +11469,7 @@
         <v>339.91</v>
       </c>
       <c r="M44" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N44" s="13">
@@ -11501,7 +11503,7 @@
       </c>
       <c r="B45" s="12" t="str" cm="1">
         <f t="array" ref="B45">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-UDOO Bolt-+-Mob_GiffGaff_USB-+--+--+--+-MaxSonar-+--+-</v>
+        <v>Hikvision DS-+-UDOO Bolt-+-Mob_Vodafone_USB-+--+--+--+-MaxSonar-+--+-</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>10</v>
@@ -11509,8 +11511,8 @@
       <c r="D45" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>14</v>
+      <c r="E45" t="s">
+        <v>178</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>24</v>
@@ -11524,7 +11526,7 @@
         <v>339.91</v>
       </c>
       <c r="M45" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N45" s="13">
@@ -11558,7 +11560,7 @@
       </c>
       <c r="B46" s="12" t="str" cm="1">
         <f t="array" ref="B46">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Vivotek HTV-+-LattePanda-+-Mob_GiffGaff_USB-+--+--+--+-MaxSonar-+--+-</v>
+        <v>Vivotek HTV-+-LattePanda-+-Mob_Vodafone_USB-+--+--+--+-MaxSonar-+--+-</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>8</v>
@@ -11566,8 +11568,8 @@
       <c r="D46" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>14</v>
+      <c r="E46" t="s">
+        <v>178</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>24</v>
@@ -11581,7 +11583,7 @@
         <v>181.93</v>
       </c>
       <c r="M46" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N46" s="13">
@@ -11615,7 +11617,7 @@
       </c>
       <c r="B47" s="12" t="str" cm="1">
         <f t="array" ref="B47">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Hikvision DS-+-UDOO Bolt-+-Mob_GiffGaff_USB-+--+--+--+-MaxSonar-+--+-</v>
+        <v>Hikvision DS-+-UDOO Bolt-+-Mob_Vodafone_USB-+--+--+--+-MaxSonar-+--+-</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>10</v>
@@ -11623,8 +11625,8 @@
       <c r="D47" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>14</v>
+      <c r="E47" t="s">
+        <v>178</v>
       </c>
       <c r="I47" s="13" t="s">
         <v>24</v>
@@ -11638,7 +11640,7 @@
         <v>339.91</v>
       </c>
       <c r="M47" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N47" s="13">
@@ -11672,7 +11674,7 @@
       </c>
       <c r="B48" s="12" t="str" cm="1">
         <f t="array" ref="B48">_xlfn.CONCAT(Table4[[#This Row],[Equipment]:[Column7]]&amp;"-+-")</f>
-        <v>Vivotek HTV-+-LattePanda-+-Mob_GiffGaff_USB-+--+--+--+-MaxSonar-+--+-</v>
+        <v>Vivotek HTV-+-LattePanda-+-Mob_Vodafone_USB-+--+--+--+-MaxSonar-+--+-</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>8</v>
@@ -11680,8 +11682,8 @@
       <c r="D48" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>14</v>
+      <c r="E48" t="s">
+        <v>178</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>24</v>
@@ -11695,7 +11697,7 @@
         <v>181.93</v>
       </c>
       <c r="M48" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>356.2</v>
       </c>
       <c r="N48" s="13">
@@ -11749,7 +11751,7 @@
         <v>339.91</v>
       </c>
       <c r="M49" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N49" s="13">
@@ -11803,7 +11805,7 @@
         <v>339.91</v>
       </c>
       <c r="M50" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N50" s="13">
@@ -11857,7 +11859,7 @@
         <v>181.93</v>
       </c>
       <c r="M51" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>840</v>
       </c>
       <c r="N51" s="13">
@@ -11911,7 +11913,7 @@
         <v>181.93</v>
       </c>
       <c r="M52" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>840</v>
       </c>
       <c r="N52" s="13">
@@ -11968,7 +11970,7 @@
         <v>339.91</v>
       </c>
       <c r="M53" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N53" s="13">
@@ -12025,7 +12027,7 @@
         <v>181.93</v>
       </c>
       <c r="M54" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N54" s="13">
@@ -12082,7 +12084,7 @@
         <v>339.91</v>
       </c>
       <c r="M55" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N55" s="13">
@@ -12139,7 +12141,7 @@
         <v>181.93</v>
       </c>
       <c r="M56" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N56" s="13">
@@ -12193,7 +12195,7 @@
         <v>339.91</v>
       </c>
       <c r="M57" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N57" s="13">
@@ -12247,7 +12249,7 @@
         <v>181.93</v>
       </c>
       <c r="M58" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>840</v>
       </c>
       <c r="N58" s="13">
@@ -12301,7 +12303,7 @@
         <v>181.93</v>
       </c>
       <c r="M59" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N59" s="13">
@@ -12355,7 +12357,7 @@
         <v>339.91</v>
       </c>
       <c r="M60" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>840</v>
       </c>
       <c r="N60" s="13">
@@ -12412,7 +12414,7 @@
         <v>339.91</v>
       </c>
       <c r="M61" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N61" s="13">
@@ -12469,7 +12471,7 @@
         <v>181.93</v>
       </c>
       <c r="M62" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N62" s="13">
@@ -12526,7 +12528,7 @@
         <v>339.91</v>
       </c>
       <c r="M63" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N63" s="13">
@@ -12583,7 +12585,7 @@
         <v>181.93</v>
       </c>
       <c r="M64" s="13">
-        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],Table7[],2,FALSE),0)</f>
+        <f>IF(Table4[[#This Row],[Column2]]&lt;&gt;0,VLOOKUP(Table4[[#This Row],[Column2]],ItemDatabase!$A$50:$C$68,2,FALSE),0)</f>
         <v>408.88</v>
       </c>
       <c r="N64" s="13">
@@ -12618,7 +12620,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S66">
-        <f>AVERAGE(Table4[Column80])</f>
+        <f>AVERAGE(Table4[Total Cost])</f>
         <v>999.3196825396825</v>
       </c>
     </row>
